--- a/config_8.24/act_hhl_ty_config.xlsx
+++ b/config_8.24/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_017_hhl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -199,43 +195,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hfsp2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_yb_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_yxb_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_017_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,7 +746,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -759,7 +759,7 @@
         <v>1630339199</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>13</v>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>300000</v>
@@ -860,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>60000</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>42000</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -902,10 +902,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -921,10 +921,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>24000</v>
@@ -940,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>9000</v>
@@ -978,10 +978,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -997,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5">
         <v>3000</v>
@@ -1014,10 +1014,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5">
         <v>1200</v>
@@ -1240,13 +1240,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,17 +1262,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1281,18 +1291,8 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1304,13 +1304,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>